--- a/Git-Docker 자동 업로드 방법.xlsx
+++ b/Git-Docker 자동 업로드 방법.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DockerArrangement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DockerWebTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B5385-D907-40C7-80EF-34D846CD929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8460D639-E6B5-4602-A002-6739248FCF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>프로그램 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t xml:space="preserve">docker-compose 사용하면 알아서 dockerHub 이미지 다운받아 실행시킨다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker 이미지가 어떤 OS와 버전에서 구동되는지 확인하는 법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   docker inspect parkseunghwan/dockerwebtest:latest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3369,6 +3377,94 @@
         <a:xfrm>
           <a:off x="0" y="167371060"/>
           <a:ext cx="6523809" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>802</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414186</xdr:colOff>
+      <xdr:row>835</xdr:row>
+      <xdr:rowOff>2482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="그림 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8E9D7C-6574-F0FB-5F12-B0FDDD3E2E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="170755235"/>
+          <a:ext cx="7933333" cy="7028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>804</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619399</xdr:colOff>
+      <xdr:row>823</xdr:row>
+      <xdr:rowOff>211820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="그림 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B29E3B-B536-C5E1-771C-5C2EC4B54BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8202706" y="171181059"/>
+          <a:ext cx="6771428" cy="4257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3955,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5F24A3-293C-419D-911B-61E13BE07DE8}">
-  <dimension ref="A1:T786"/>
+  <dimension ref="A1:T803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A764" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A786" sqref="A786"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4191,6 +4287,16 @@
     <row r="786" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="802" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M803" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Git-Docker 자동 업로드 방법.xlsx
+++ b/Git-Docker 자동 업로드 방법.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DockerWebTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8460D639-E6B5-4602-A002-6739248FCF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4AF4C4-7419-4C2B-B302-613F4503DDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="git-docker 연동" sheetId="1" r:id="rId1"/>
-    <sheet name="Mattermost 세팅" sheetId="2" r:id="rId2"/>
+    <sheet name="git-docker 연동(Web, console)" sheetId="1" r:id="rId1"/>
+    <sheet name="git-Jekins 연동(winform)" sheetId="3" r:id="rId2"/>
+    <sheet name="Mattermost 세팅" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>프로그램 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +217,137 @@
   </si>
   <si>
     <t xml:space="preserve">   docker inspect parkseunghwan/dockerwebtest:latest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins Home : https://www.jenkins.io/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치파일 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Run service as local or domain user:" Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>window login ID/ PW 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK 21 or 23 경로 입력 (JDK 21 or 23 버전 설치해야하는 것으로 기억합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 완료 후 비밀번호 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 아래 주소를 입력합니다. (포트를 수정했다면 포트 수정된 주소입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. http://localhost:8080/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 파일탐색기 위치에서 초기 진입 비밀번호를 입력칸에 넣어줍니다. (initialAdminPassword 우클릭 후 편집으로 내용 확인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정 설정</t>
+  </si>
+  <si>
+    <t>GitHub 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git push 할때 Event를 Jenkins에서 감지하기 위해 webhook 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub는 외부망이고 Jenkins는 내부망(Localhost)이기 때문에 Localhost에 공용 IP를 부여해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local host에 공용 IP를 부여해주는 ngrok 다운로드 ( https://download.ngrok.com/downloads/windows?tab=download )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd로 ngrok.exe 있는 폴더로 이동한 후 ngrok http 8080 ( Jenkins Port ) 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins "새로운 Item" 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하기와 같이 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PlugIn 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Tools 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. ftp 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전에 세팅 및 설치해야 할 항목들이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSBuild Plugin --&gt; Visual Studio 2022로 *.sln 을 컴파일하기 위함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Publish Over FTP --&gt; 컴파일된 실행파일들을 FTP Server로 자동 배포하기 위함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileZilla FTP Server 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP 만 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 및 권한 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub push 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins 를 통한 PipeLine 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 빌드 및 FTP Server 배포 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Action 사용 안한 이유 : Action은 GitHub (외부망)에서 Localhost(내부망)으로 FTP 전송해 줌에 있어 세팅이 어려워서 Jenkins로 진행하였음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub(외부망) - Jenkins(내부망)은 비교적 세팅이 쉬웠고, Jenkins(내부망) - FTP Server(내부망)의 세팅도 나름 괜찮았음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +370,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,8 +400,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3477,6 +3618,2361 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211B9077-B53D-25BB-0E31-A4B5AFE467E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="419100"/>
+          <a:ext cx="8924925" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5EFC2A-384F-BEBC-C0A4-7CE9CA3F826A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5657850"/>
+          <a:ext cx="4714875" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A35D2B0-EB43-E31E-530C-68BB2D345D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9429750"/>
+          <a:ext cx="4714875" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2343BFF0-9E6E-5007-C71A-7046AE990A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13201650"/>
+          <a:ext cx="4714875" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD6418D-9D8D-597E-E2E5-A6E8F4752596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="15116175"/>
+          <a:ext cx="3057525" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF58DB9-21EB-1B4A-0141-906F850E3983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16973550"/>
+          <a:ext cx="4714875" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1994B9-BC45-3E90-F710-3F04FC97EB4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20745450"/>
+          <a:ext cx="4714875" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A9C3B5-E322-B48A-C1ED-5BA0242D53C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24517350"/>
+          <a:ext cx="4714875" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16A8A3F-12AC-180D-1CE5-54FAB1BE29FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28289250"/>
+          <a:ext cx="4714875" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F0877B-899B-49AE-5ECC-262EF98C3873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="32061150"/>
+          <a:ext cx="4714875" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8743620E-656D-294E-A962-5092D91A3FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="36880800"/>
+          <a:ext cx="9963150" cy="6591300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2FBF64-A078-6A1D-C58A-BFE549827D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="43795950"/>
+          <a:ext cx="8686800" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076BE23C-FED1-44DF-E4A9-BF59BE7DFDAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="48872775"/>
+          <a:ext cx="9163050" cy="6305550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9311C1-DB0C-9195-71BB-5D805060A8B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="55530750"/>
+          <a:ext cx="9496425" cy="6438900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582304AA-127F-4737-7B24-E7120AA3190E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="62026800"/>
+          <a:ext cx="9534525" cy="6467475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C914CA-3F76-02C6-7754-1353B35EEC67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="68522850"/>
+          <a:ext cx="9563100" cy="6505575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675410</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>123311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4524042-46A8-B665-DACA-38E41F690B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="74606727"/>
+          <a:ext cx="9680864" cy="5110948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="곱하기 기호 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46419EB-7405-89D6-0759-304C5C0B6CBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847851" y="76895325"/>
+          <a:ext cx="1352550" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7127"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2AD089-DB4A-1E55-3955-35F3D5CFFD2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="77438250"/>
+          <a:ext cx="4362450" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이건 없을것입니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>. (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>세팅 완료한 캡쳐화면</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>입니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>550752</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>132128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B91651-9FC4-86F7-3EFA-524DF801DD39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="81305400"/>
+          <a:ext cx="13580952" cy="9771428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>189533</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>190240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E6ED73-2B75-50EE-FC9B-97A9E694FC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="91573350"/>
+          <a:ext cx="7733333" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218190</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>151887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4F24DC-01F5-D6A5-8F30-F80841D1B8A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="93906975"/>
+          <a:ext cx="7076190" cy="4104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE4C21C-0877-1D8C-4E42-6FEFFC2EC2FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3429000" y="85982175"/>
+          <a:ext cx="4362450" cy="9563100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="직선 연결선 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5AFAAE-6DE1-1013-C735-96247D35D963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="85934550"/>
+          <a:ext cx="2466975" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>470</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>1219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F55272-B89F-5F88-4439-7564AC02CBA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="98488501"/>
+          <a:ext cx="3143250" cy="3563568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>470</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>531559</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39270F43-E342-8C74-7BF3-424C87DC9C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="98488501"/>
+          <a:ext cx="8761159" cy="6477000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="화살표: 오른쪽 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3F268C-4D4D-BB19-2319-4AA93EC1563E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="100584000"/>
+          <a:ext cx="762000" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>620</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>659</xdr:row>
+      <xdr:rowOff>84693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B009505-0DAC-6119-88A2-B4EE8C592FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="105613200"/>
+          <a:ext cx="18285714" cy="8257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>660</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>513185</xdr:colOff>
+      <xdr:row>698</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904CC3E1-92AA-14AA-5C15-7EC85A600F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:srcRect b="6103"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="115824000"/>
+          <a:ext cx="18285714" cy="8146676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>699</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>513185</xdr:colOff>
+      <xdr:row>737</xdr:row>
+      <xdr:rowOff>61734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5046CE07-E297-5C4B-552F-CB57D09B8E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="124127559"/>
+          <a:ext cx="18285714" cy="8152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>738</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>513185</xdr:colOff>
+      <xdr:row>764</xdr:row>
+      <xdr:rowOff>130961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1BF03C-8C2F-A6D6-9980-1E65EEA8E901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="132431118"/>
+          <a:ext cx="18285714" cy="5666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>765</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>513185</xdr:colOff>
+      <xdr:row>805</xdr:row>
+      <xdr:rowOff>159719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C8B90F-4719-4AA7-2713-A1A917213C6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="138179735"/>
+          <a:ext cx="18285714" cy="8676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>65368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69AD824-F0FF-325D-2A72-59F81BE8F55D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="147334942"/>
+          <a:ext cx="14702118" cy="2833220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>358590</xdr:colOff>
+      <xdr:row>532</xdr:row>
+      <xdr:rowOff>34561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BE6633-AEF9-1095-175E-274D73B1CE2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="150315707"/>
+          <a:ext cx="14713324" cy="2376590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>513185</xdr:colOff>
+      <xdr:row>575</xdr:row>
+      <xdr:rowOff>159719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834E1AE0-3339-425E-4E53-5B504BB13A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="153296471"/>
+          <a:ext cx="18285714" cy="8676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>577</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>513185</xdr:colOff>
+      <xdr:row>617</xdr:row>
+      <xdr:rowOff>159719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA5C37C-CC02-D017-80B4-148ABDD11056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="162238765"/>
+          <a:ext cx="18285714" cy="8676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>809</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>331881</xdr:colOff>
+      <xdr:row>836</xdr:row>
+      <xdr:rowOff>108526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B7BBAD-312F-EB95-275C-8AAD3BCDF59D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="172245618"/>
+          <a:ext cx="11952381" cy="5857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>439700</xdr:colOff>
+      <xdr:row>863</xdr:row>
+      <xdr:rowOff>20063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4A567F-3F5C-1EF2-B14A-665E34182259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="178420059"/>
+          <a:ext cx="10009524" cy="5342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>866</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519850</xdr:colOff>
+      <xdr:row>883</xdr:row>
+      <xdr:rowOff>18595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84276CC-F6EB-4F8B-BBE4-6231330C0CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="184381588"/>
+          <a:ext cx="5304762" cy="3638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>885</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>520202</xdr:colOff>
+      <xdr:row>913</xdr:row>
+      <xdr:rowOff>152757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A191B7F3-704E-4A44-FCBE-2CCB625C2B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="188426912"/>
+          <a:ext cx="11457143" cy="6114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>915</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>351280</xdr:colOff>
+      <xdr:row>940</xdr:row>
+      <xdr:rowOff>105777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55B4B6F-E2D5-CED2-8A56-077C5B2C4DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="194814265"/>
+          <a:ext cx="18123809" cy="5428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>941</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376091</xdr:colOff>
+      <xdr:row>986</xdr:row>
+      <xdr:rowOff>18971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="그림 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6632A94-B2A8-5A50-8255-7E5C93481B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="200349971"/>
+          <a:ext cx="7895238" cy="9600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>988</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>475090</xdr:colOff>
+      <xdr:row>1033</xdr:row>
+      <xdr:rowOff>180876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731820F7-E18D-D87A-0F45-DEE57E61595D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="210356824"/>
+          <a:ext cx="18247619" cy="9761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1034</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216666</xdr:colOff>
+      <xdr:row>1051</xdr:row>
+      <xdr:rowOff>73036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="그림 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E9AD27-AA9A-FC6A-8708-1E96A80A878E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="211046786"/>
+          <a:ext cx="8380952" cy="3542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>550000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54641338-1B29-1E85-D721-2C5BD23189A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525000" y="204107"/>
+          <a:ext cx="8714286" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4053,8 +6549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5F24A3-293C-419D-911B-61E13BE07DE8}">
   <dimension ref="A1:T803"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A740" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4307,11 +6803,194 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDD5EFC-B91A-4086-A131-45F9C3DF64B2}">
+  <dimension ref="A1:P988"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA488" sqref="AA488"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A680D80-D75F-43BF-92E5-E22B2F45355F}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Git-Docker 자동 업로드 방법.xlsx
+++ b/Git-Docker 자동 업로드 방법.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\DockerWebTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\DockerWebTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4AF4C4-7419-4C2B-B302-613F4503DDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95D57CA-7F80-44CA-A9A2-B84C792F6033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
   </bookViews>
   <sheets>
     <sheet name="git-docker 연동(Web, console)" sheetId="1" r:id="rId1"/>
@@ -5967,6 +5967,198 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>551786</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>93393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDEC715D-2E79-1643-D730-ED9E2A3AB0D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11566071" y="35514643"/>
+          <a:ext cx="5314286" cy="3971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>378571</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>202441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83D64E9-5E36-416C-A54C-F1ABC44C33B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11566071" y="39596786"/>
+          <a:ext cx="8542857" cy="2447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>383619</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E794F3E9-D886-8084-0DFF-D1326C79090B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17553214" y="35950071"/>
+          <a:ext cx="5282191" cy="3388179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="화살표: 오른쪽 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91E9920-F036-D290-43B6-AEC428B48A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16995321" y="37229143"/>
+          <a:ext cx="462643" cy="870857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6549,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5F24A3-293C-419D-911B-61E13BE07DE8}">
   <dimension ref="A1:T803"/>
   <sheetViews>
-    <sheetView topLeftCell="A740" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView topLeftCell="A701" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M803" sqref="M803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6806,8 +6998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDD5EFC-B91A-4086-A131-45F9C3DF64B2}">
   <dimension ref="A1:P988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA488" sqref="AA488"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P198" sqref="P198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Git-Docker 자동 업로드 방법.xlsx
+++ b/Git-Docker 자동 업로드 방법.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\DockerWebTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95D57CA-7F80-44CA-A9A2-B84C792F6033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58599CDC-03FF-4A5F-836C-00E619D4DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E55184-E59D-44B5-9F73-E870D2D975A7}"/>
   </bookViews>
   <sheets>
     <sheet name="git-docker 연동(Web, console)" sheetId="1" r:id="rId1"/>
@@ -6741,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5F24A3-293C-419D-911B-61E13BE07DE8}">
   <dimension ref="A1:T803"/>
   <sheetViews>
-    <sheetView topLeftCell="A701" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M803" sqref="M803"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L250" sqref="L250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6998,7 +6998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDD5EFC-B91A-4086-A131-45F9C3DF64B2}">
   <dimension ref="A1:P988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P198" sqref="P198"/>
     </sheetView>
   </sheetViews>
